--- a/Room.xlsx
+++ b/Room.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25615"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buidu_8h8ybgq\OneDrive\Documents\GitHub\PRJ301_BL5_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDCFD1C-046A-4954-A31F-F63158A3CC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF0A2C6-5594-4949-9A1D-619BD4AFDC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1035" windowWidth="25065" windowHeight="14550" activeTab="3" xr2:uid="{9DDC04CE-502E-42A2-83FA-8E8E8789DE86}"/>
+    <workbookView xWindow="15750" yWindow="600" windowWidth="10185" windowHeight="14550" activeTab="3" xr2:uid="{9DDC04CE-502E-42A2-83FA-8E8E8789DE86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>C</t>
     <phoneticPr fontId="1"/>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>isActive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startAt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,6 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477EFAD5-59AA-44CF-AAEB-6E98223A9AED}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -1546,6 +1551,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D1E9C5-D3E2-4E84-8A5C-DAEE638B9CD4}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2213,6 +2219,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A9B821-114C-47DC-970A-CF838AA638A5}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="C1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2552,10 +2559,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF637E48-8260-4F77-9811-BE25571500A1}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2594,6 +2602,9 @@
       <c r="B5" t="s">
         <v>88</v>
       </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
       <c r="D5" t="s">
         <v>90</v>
       </c>
@@ -2604,6 +2615,9 @@
       </c>
       <c r="B6" t="s">
         <v>89</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
